--- a/Table/Datas/SkillData.xlsx
+++ b/Table/Datas/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE997C9-C95B-4E7F-AB3F-E56BA843615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE352DB-D357-49DE-80D0-3DD1825DBFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>CostSP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cerafina_Skill1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -848,6 +852,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
